--- a/TextExtraction/sample.xlsx
+++ b/TextExtraction/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TextExtraction\TextExtraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9DFA1E-C390-45B9-8357-940C450E8DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB5C97-DAD0-49B3-8DA4-A53C0F06C2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,6 +1220,139 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A8AB03-7C7C-48F7-BF2C-0CEC8AB85D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10153649" y="4619625"/>
+          <a:ext cx="1647826" cy="1295400"/>
+          <a:chOff x="10153649" y="4619625"/>
+          <a:chExt cx="1647826" cy="933450"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Star: 5 Points 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE7B249-2533-41C3-B554-C1CC8F54C8C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10163174" y="4619625"/>
+            <a:ext cx="1638301" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="star5">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>HEY!</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Oval 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA97464E-1A35-4CBB-AF0E-CD30012B0965}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10153649" y="5162550"/>
+            <a:ext cx="1038225" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>YOU!</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
